--- a/legendre_out/DATA/a1/a1CrossPoints.xlsx
+++ b/legendre_out/DATA/a1/a1CrossPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,13 +385,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>2.473895672926275e-05</v>
+        <v>3.000154242034687e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>6.043389961600601e-07</v>
+        <v>7.285549416914637e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -401,13 +401,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.248752179696807e-05</v>
+        <v>2.763146714319384e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>6.073297084848897e-07</v>
+        <v>7.271074985798868e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -417,13 +417,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.236677593425376e-05</v>
+        <v>2.577226830385066e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.182423933191606e-07</v>
+        <v>6.969490423322151e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.019055416350365e-05</v>
+        <v>2.428952509867424e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.911153839766762e-07</v>
+        <v>6.820523175158766e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.053894706788864e-05</v>
+        <v>2.372002301597441e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>6.580175860829168e-07</v>
+        <v>7.180593818945264e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.060649838071788e-05</v>
+        <v>2.312764710066394e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.590897271861392e-07</v>
+        <v>7.111465593766218e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>1.927857352037267e-05</v>
+        <v>2.258641991980371e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.741116267953084e-07</v>
+        <v>6.401652195156967e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.685028143057033e-05</v>
+        <v>1.939084151484123e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.057190855558233e-07</v>
+        <v>5.586463879270433e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.509971713178459e-05</v>
+        <v>1.652177173379054e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.305293877824206e-07</v>
+        <v>5.657218331053732e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>9.894555631360898e-06</v>
+        <v>1.147244456758692e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.177306670139043e-07</v>
+        <v>4.501475137096457e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>5.879090940746742e-06</v>
+        <v>6.977790626549638e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>2.867533575292962e-07</v>
+        <v>3.084259809642814e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4.876545024423077e-06</v>
+        <v>5.307894078801236e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.651462062637484e-07</v>
+        <v>2.748294569379141e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>1.992492008487131e-05</v>
+        <v>2.469326465206197e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.597705164251361e-07</v>
+        <v>6.695362803015539e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.13369355246289e-05</v>
+        <v>3.874241541531473e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>8.001088726512448e-07</v>
+        <v>9.712309325528824e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>4.307956435772949e-05</v>
+        <v>5.253121026628386e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.088062045055942e-06</v>
+        <v>1.313359214801878e-06</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.03028388964728e-05</v>
+        <v>4.957108371890544e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.040374054886785e-06</v>
+        <v>1.252879194038493e-06</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>3.931819481920858e-05</v>
+        <v>5.027632850608362e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1.05519000183089e-06</v>
+        <v>1.309680956108659e-06</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>3.986207705582775e-05</v>
+        <v>4.98579844617926e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.101035724123574e-06</v>
+        <v>1.321657388487153e-06</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.911551594782208e-05</v>
+        <v>5.020410439878777e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.121350114848373e-06</v>
+        <v>1.373399540458392e-06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>4.298881398335835e-05</v>
+        <v>5.44431916291678e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.313797634584368e-06</v>
+        <v>1.544646428130132e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>4.410685461101892e-05</v>
+        <v>7.410724015313657e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1.86013422744288e-06</v>
+        <v>2.509090116165247e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>5.934056984673998e-05</v>
+        <v>9.072100005241123e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>2.681597701946426e-06</v>
+        <v>3.27742144954006e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>6.801203927219698e-05</v>
+        <v>0.0001116529714359026</v>
       </c>
       <c r="C24" t="n">
-        <v>3.494374235307526e-06</v>
+        <v>4.20661995610511e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>6.000122498946862e-05</v>
+        <v>0.0001185090348680956</v>
       </c>
       <c r="C25" t="n">
-        <v>2.983065420243913e-06</v>
+        <v>4.10807307660879e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>6.70760857786738e-05</v>
+        <v>0.0001083920689375963</v>
       </c>
       <c r="C26" t="n">
-        <v>3.284101877125947e-06</v>
+        <v>4.054890730576845e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>4.263879289178112e-05</v>
+        <v>0.0001017944448485512</v>
       </c>
       <c r="C27" t="n">
-        <v>2.550629025562623e-06</v>
+        <v>3.944349957990391e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>7.244314774825769e-05</v>
+        <v>0.0001036963484720066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.531144779036452e-06</v>
+        <v>4.011260185567302e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>5.746665122007901e-05</v>
+        <v>0.0001049865874526784</v>
       </c>
       <c r="C29" t="n">
-        <v>2.860636410901379e-06</v>
+        <v>3.853961803306445e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>4.958116254673383e-05</v>
+        <v>0.0001010574246729614</v>
       </c>
       <c r="C30" t="n">
-        <v>2.675883700862877e-06</v>
+        <v>3.724859478181301e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>3.845191538307322e-05</v>
+        <v>9.583723437422295e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.399681293967633e-06</v>
+        <v>3.683007574751136e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>3.410116729581019e-05</v>
+        <v>8.953769891951617e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>2.231196432024744e-06</v>
+        <v>3.602302612447361e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>3.252968192417878e-05</v>
+        <v>8.533961816792934e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>2.062744095286103e-06</v>
+        <v>3.354315572364757e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>3.93629253386049e-05</v>
+        <v>7.959102923424123e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2.519369263393508e-06</v>
+        <v>3.420750810179524e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>3.332676811182457e-05</v>
+        <v>7.796540098685737e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>2.077274385313383e-06</v>
+        <v>3.103134779898495e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>4.926496463163261e-05</v>
+        <v>6.993975397670115e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>2.518147923896324e-06</v>
+        <v>2.823516031379127e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>2.845510069953076e-05</v>
+        <v>6.000380166294159e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1.663306802526275e-06</v>
+        <v>2.346593567094264e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>3.273637304012923e-05</v>
+        <v>5.092762941309818e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.587496519828387e-06</v>
+        <v>1.912841166095105e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>2.718531066128369e-05</v>
+        <v>4.27190671864446e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1.209238375866627e-06</v>
+        <v>1.498310381255116e-06</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>2.78018079573029e-05</v>
+        <v>4.85784826572358e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1.467532821377721e-06</v>
+        <v>1.879519024396914e-06</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>3.105086668306402e-05</v>
+        <v>3.618587641946012e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27345659394323e-06</v>
+        <v>1.297696596297212e-06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>2.989520283611938e-05</v>
+        <v>3.74078023162222e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>9.695408748123038e-07</v>
+        <v>1.14764780879032e-06</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>2.905433091183265e-05</v>
+        <v>3.575661664910162e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>8.912190257376033e-07</v>
+        <v>1.037175554157505e-06</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.718078513362496e-05</v>
+        <v>3.178049042586882e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>8.079188644723784e-07</v>
+        <v>9.023193006082339e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.610862282588564e-05</v>
+        <v>3.001232669975656e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>7.849577318446915e-07</v>
+        <v>8.581268239665896e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.584584400923795e-05</v>
+        <v>2.965765299718466e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>7.294816326166066e-07</v>
+        <v>8.150933225154343e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.207644035315823e-05</v>
+        <v>2.437862676138678e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.546326324148076e-07</v>
+        <v>7.154019161658189e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.192063448465915e-05</v>
+        <v>2.528370726576391e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.686485320383525e-07</v>
+        <v>7.440412201218811e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.444970945817856e-05</v>
+        <v>2.74959835278975e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>7.611581292090727e-07</v>
+        <v>8.195170429571394e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.547939935029396e-05</v>
+        <v>2.764272818320678e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.723451554441654e-07</v>
+        <v>9.209280857412723e-07</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.468408293804947e-05</v>
+        <v>2.793925924186295e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>8.262777104307085e-07</v>
+        <v>9.016475562079493e-07</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>1.956584265685354e-05</v>
+        <v>2.371831807989177e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.150220546733921e-06</v>
+        <v>1.253872353640091e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.281038590630451e-05</v>
+        <v>2.415201092280286e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.426728967640913e-06</v>
+        <v>1.398566143748921e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.337199608351025e-05</v>
+        <v>1.518402191473265e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>2.243864546187275e-06</v>
+        <v>2.20189932052701e-06</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>9.42158874057838e-06</v>
+        <v>1.463619777656303e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>1.884510916680905e-06</v>
+        <v>3.006859912806283e-06</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.266852950303476e-05</v>
+        <v>1.506350723091026e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>2.083089240290774e-06</v>
+        <v>2.319346673634064e-06</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>2.090315887247532e-05</v>
+        <v>2.071165454672651e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>2.531626013279771e-06</v>
+        <v>2.31370656107185e-06</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.356726266564794e-05</v>
+        <v>2.882747574461396e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.638680565097498e-06</v>
+        <v>1.769780168537662e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>2.687424014037112e-05</v>
+        <v>3.280702793695272e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.542835909508223e-06</v>
+        <v>1.695076839217269e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>2.803412337087278e-05</v>
+        <v>3.187809760233196e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1.746777518359512e-06</v>
+        <v>1.708637434456233e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.038634653057626e-05</v>
+        <v>3.46292716489193e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.274324905778959e-06</v>
+        <v>1.342209479291025e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.255165720488678e-05</v>
+        <v>3.899216863487676e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.077098585952656e-06</v>
+        <v>1.199595329521268e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.331822800820954e-05</v>
+        <v>4.201650827796277e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00260309857065e-06</v>
+        <v>1.18619236194368e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>3.660533483470028e-05</v>
+        <v>4.555223052345129e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>9.873136263150983e-07</v>
+        <v>1.19031990999692e-06</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>3.987876760867453e-05</v>
+        <v>5.347372706062752e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.335825299471401e-06</v>
+        <v>1.617221932236465e-06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>3.45197027503216e-05</v>
+        <v>5.392785399208004e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.724633941645747e-06</v>
+        <v>2.27965278641955e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>4.247594225436396e-05</v>
+        <v>4.922010930009435e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.468815589842788e-06</v>
+        <v>2.555166262808162e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.67293464337235e-05</v>
+        <v>4.380995414284909e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.08366429586066e-06</v>
+        <v>3.261842490737283e-06</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.638634100368821e-05</v>
+        <v>4.918312165210555e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.609010528451827e-06</v>
+        <v>2.855637431718153e-06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>2.326312802501634e-05</v>
+        <v>4.064243965274718e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>3.070203409045295e-06</v>
+        <v>4.040774039925789e-06</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>2.775972602431886e-05</v>
+        <v>3.177593472196273e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>4.748499384029584e-06</v>
+        <v>4.951321733732732e-06</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>3.714903528313254e-05</v>
+        <v>4.141032848613948e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>2.739174761844363e-06</v>
+        <v>2.688777370941651e-06</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.102000873113118e-05</v>
+        <v>1.409859662756308e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>2.905456331705039e-06</v>
+        <v>3.678833228451137e-06</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>7.983254633706445e-06</v>
+        <v>1.096635600062079e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>2.230448273266322e-06</v>
+        <v>3.436953949360833e-06</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>3.812900828075299e-06</v>
+        <v>1.446313745654189e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03741317309085e-06</v>
+        <v>2.893658737716127e-06</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>2.773782762215909e-05</v>
+        <v>3.638240047843436e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>2.467915318950654e-06</v>
+        <v>2.59856257691325e-06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>4.202742592740168e-05</v>
+        <v>0.0001055291909995931</v>
       </c>
       <c r="C77" t="n">
-        <v>2.758721131068817e-06</v>
+        <v>4.394865612711465e-06</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>2.90214909498025e-05</v>
+        <v>0.0003074150082799202</v>
       </c>
       <c r="C78" t="n">
-        <v>2.766156509167203e-06</v>
+        <v>1.018227780932772e-05</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>5.022587320348945e-05</v>
+        <v>0.0003328395369877125</v>
       </c>
       <c r="C79" t="n">
-        <v>4.514497061820659e-06</v>
+        <v>1.22441019425499e-05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>6.161597738909408e-05</v>
+        <v>0.0002599080535354469</v>
       </c>
       <c r="C80" t="n">
-        <v>4.210348086400252e-06</v>
+        <v>8.82021452928127e-06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>5.010796718492485e-05</v>
+        <v>0.0001359321265676764</v>
       </c>
       <c r="C81" t="n">
-        <v>3.07018706231162e-06</v>
+        <v>5.154688838582071e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>7.44757336913989e-05</v>
+        <v>0.0001220866831877324</v>
       </c>
       <c r="C82" t="n">
-        <v>3.093729612602084e-06</v>
+        <v>4.140137044224441e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>8.493720123015514e-05</v>
+        <v>0.000143906211749224</v>
       </c>
       <c r="C83" t="n">
-        <v>3.273214396535074e-06</v>
+        <v>4.427829134217341e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>8.894588619384832e-05</v>
+        <v>0.0001535750290626236</v>
       </c>
       <c r="C84" t="n">
-        <v>2.773509675633876e-06</v>
+        <v>4.094593804572978e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>7.61295150875946e-05</v>
+        <v>0.0001061320362073925</v>
       </c>
       <c r="C85" t="n">
-        <v>2.18844457224472e-06</v>
+        <v>2.805509060932127e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>5.172043628579005e-05</v>
+        <v>7.460326717705928e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.520895482672415e-06</v>
+        <v>2.018813479043713e-06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>4.736148841102317e-05</v>
+        <v>6.318973141465907e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.247042423270267e-06</v>
+        <v>1.607686170246328e-06</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>5.083160282251096e-05</v>
+        <v>6.935954500329951e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.413326842777298e-06</v>
+        <v>1.820366902272281e-06</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>7.273180460027151e-05</v>
+        <v>0.0001120829744446205</v>
       </c>
       <c r="C89" t="n">
-        <v>1.999564107801035e-06</v>
+        <v>2.871707121414456e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001270700087880344</v>
+        <v>0.0002313154277874164</v>
       </c>
       <c r="C90" t="n">
-        <v>3.658099193379044e-06</v>
+        <v>5.876944877643168e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000136539352754806</v>
+        <v>0.0002358727040221707</v>
       </c>
       <c r="C91" t="n">
-        <v>3.852797790909026e-06</v>
+        <v>5.982552825977417e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001366698488983003</v>
+        <v>0.0002221447839952602</v>
       </c>
       <c r="C92" t="n">
-        <v>3.880882703773707e-06</v>
+        <v>5.756765696507257e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001294223108677553</v>
+        <v>0.0001789021431545884</v>
       </c>
       <c r="C93" t="n">
-        <v>3.918224447032926e-06</v>
+        <v>4.954223369203144e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001017066451342248</v>
+        <v>0.0001258304871842469</v>
       </c>
       <c r="C94" t="n">
-        <v>4.352442905513555e-06</v>
+        <v>4.73476255467662e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000171427973859296</v>
+        <v>0.0001991498540119604</v>
       </c>
       <c r="C95" t="n">
-        <v>5.51861811654919e-06</v>
+        <v>6.040549803137015e-06</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.000354130391817019</v>
+        <v>0.0004147216682794244</v>
       </c>
       <c r="C96" t="n">
-        <v>8.73925154253555e-06</v>
+        <v>1.014105982860041e-05</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003104618642284664</v>
+        <v>0.0003634290871641658</v>
       </c>
       <c r="C97" t="n">
-        <v>7.501765282554133e-06</v>
+        <v>8.755797193816334e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002052276213338144</v>
+        <v>0.0002399901539528359</v>
       </c>
       <c r="C98" t="n">
-        <v>4.90235266306119e-06</v>
+        <v>5.716627233746923e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001333674136070985</v>
+        <v>0.0001528082967493449</v>
       </c>
       <c r="C99" t="n">
-        <v>3.195444427004266e-06</v>
+        <v>3.647298229944277e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>6.723049935259374e-05</v>
+        <v>7.519577471931954e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1.682620040670851e-06</v>
+        <v>1.862486597188414e-06</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>4.951811646138339e-05</v>
+        <v>5.437996558735128e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.198434080027105e-06</v>
+        <v>1.313062293717529e-06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.064328703115013e-05</v>
+        <v>5.732044175378717e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.212588976907153e-06</v>
+        <v>1.373655142018551e-06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>5.437188445523468e-05</v>
+        <v>6.20625852228339e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.319723259223945e-06</v>
+        <v>1.507471724472597e-06</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>5.703726841687675e-05</v>
+        <v>6.608722063740619e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1.335046325557558e-06</v>
+        <v>1.553993278016504e-06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.130429022253236e-05</v>
+        <v>6.974090580952666e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1.600012672436711e-06</v>
+        <v>1.795809221782491e-06</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>5.948111235726543e-05</v>
+        <v>7.01885064558694e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.557705555248232e-06</v>
+        <v>1.785493164885028e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>6.253401347764117e-05</v>
+        <v>7.072313915325942e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.729489857345241e-06</v>
+        <v>1.927132716331288e-06</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>6.429197617282759e-05</v>
+        <v>7.418564326925211e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.579032001250295e-06</v>
+        <v>1.82009902070515e-06</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>6.347130004272174e-05</v>
+        <v>7.557160424454405e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.715513429890912e-06</v>
+        <v>1.978146048270872e-06</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>6.468135239457057e-05</v>
+        <v>7.614798335586908e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.626714150799075e-06</v>
+        <v>1.891654773289404e-06</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>6.390426914069862e-05</v>
+        <v>7.687898091953641e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.653731583202349e-06</v>
+        <v>1.938517694948631e-06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>6.419688693345614e-05</v>
+        <v>7.99801746524017e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.757278049289348e-06</v>
+        <v>2.107132623862344e-06</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.274062631732951e-05</v>
+        <v>7.680125808677259e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.651439978205612e-06</v>
+        <v>1.976047301479071e-06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.504759604474946e-05</v>
+        <v>8.007137742112398e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.709580696416454e-06</v>
+        <v>2.028525032455187e-06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.48547386637872e-05</v>
+        <v>8.008397995429655e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.744930920473485e-06</v>
+        <v>2.075897479548432e-06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>6.64008816851477e-05</v>
+        <v>8.21089261733579e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.769901873585205e-06</v>
+        <v>2.134939629262983e-06</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.136954806232027e-05</v>
+        <v>8.720136042315918e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.966483924997992e-06</v>
+        <v>2.312886352203438e-06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>6.645306394145486e-05</v>
+        <v>8.228916027800296e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.692835574487571e-06</v>
+        <v>2.05463922950975e-06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>6.715046717331604e-05</v>
+        <v>8.377660771846928e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.814841728933962e-06</v>
+        <v>2.173398065632232e-06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>6.730041901379466e-05</v>
+        <v>8.468355078247249e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.745778626663205e-06</v>
+        <v>2.134297917434311e-06</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>7.374521541774344e-05</v>
+        <v>9.047316852704549e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.953836998043213e-06</v>
+        <v>2.331041715872939e-06</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>6.948920862879046e-05</v>
+        <v>8.721209487429061e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.742181914374677e-06</v>
+        <v>2.145514584855104e-06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>6.933425253663762e-05</v>
+        <v>8.963393756427206e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1.673750855561153e-06</v>
+        <v>2.149392526655107e-06</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>8.036152975790825e-05</v>
+        <v>9.737664514887169e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>2.038683837223862e-06</v>
+        <v>2.431766309278849e-06</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>8.076932704649257e-05</v>
+        <v>0.0001038598302544735</v>
       </c>
       <c r="C125" t="n">
-        <v>1.993064905424567e-06</v>
+        <v>2.522153113072709e-06</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>9.340170658977059e-05</v>
+        <v>0.0001175814580627266</v>
       </c>
       <c r="C126" t="n">
-        <v>2.326600825301551e-06</v>
+        <v>2.873917788094132e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>9.294405451560381e-05</v>
+        <v>0.0001166824111796317</v>
       </c>
       <c r="C127" t="n">
-        <v>2.300000774143497e-06</v>
+        <v>2.84019040604755e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001144940809437049</v>
+        <v>0.0001440335284033769</v>
       </c>
       <c r="C128" t="n">
-        <v>2.94805466021584e-06</v>
+        <v>3.594810580187028e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001920687014833335</v>
+        <v>0.0002286287624292498</v>
       </c>
       <c r="C129" t="n">
-        <v>4.971296871454867e-06</v>
+        <v>5.781938100958142e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002660522565861395</v>
+        <v>0.0003122173600061873</v>
       </c>
       <c r="C130" t="n">
-        <v>6.612607297820299e-06</v>
+        <v>7.66512718550302e-06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002661416324436202</v>
+        <v>0.000310422944790086</v>
       </c>
       <c r="C131" t="n">
-        <v>6.84989931844899e-06</v>
+        <v>7.85299986459225e-06</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002481489976243724</v>
+        <v>0.0002932881889689139</v>
       </c>
       <c r="C132" t="n">
-        <v>6.29125106870101e-06</v>
+        <v>7.312747378355064e-06</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002461329991474745</v>
+        <v>0.0002862879592234184</v>
       </c>
       <c r="C133" t="n">
-        <v>6.236810110379081e-06</v>
+        <v>7.143868417275234e-06</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.000240590137284926</v>
+        <v>0.0002835253625906371</v>
       </c>
       <c r="C134" t="n">
-        <v>6.170614850402854e-06</v>
+        <v>7.130552029279033e-06</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002315557172872192</v>
+        <v>0.0002669537795698326</v>
       </c>
       <c r="C135" t="n">
-        <v>6.188391329410615e-06</v>
+        <v>6.935199383973108e-06</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002084110971762754</v>
+        <v>0.000240483051049968</v>
       </c>
       <c r="C136" t="n">
-        <v>5.489587329423601e-06</v>
+        <v>6.193966074999816e-06</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001554392800369971</v>
+        <v>0.0001797189086259691</v>
       </c>
       <c r="C137" t="n">
-        <v>4.38915051942325e-06</v>
+        <v>4.919734102515735e-06</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001060611688012813</v>
+        <v>0.0001293848613067862</v>
       </c>
       <c r="C138" t="n">
-        <v>3.094440262361512e-06</v>
+        <v>3.57080686085567e-06</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002002721722286072</v>
+        <v>0.0002542656138601661</v>
       </c>
       <c r="C139" t="n">
-        <v>4.812284653050457e-06</v>
+        <v>6.057891300810975e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001996750601857381</v>
+        <v>0.0002474477667020884</v>
       </c>
       <c r="C140" t="n">
-        <v>4.816205815311678e-06</v>
+        <v>5.961647234885174e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000195893252744584</v>
+        <v>0.0002544573691264853</v>
       </c>
       <c r="C141" t="n">
-        <v>4.552738385788061e-06</v>
+        <v>5.91451158670739e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001637283377659828</v>
+        <v>0.0002292796781555733</v>
       </c>
       <c r="C142" t="n">
-        <v>3.935430614542618e-06</v>
+        <v>5.491144133002071e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000163962857408027</v>
+        <v>0.0002309771980809863</v>
       </c>
       <c r="C143" t="n">
-        <v>4.028349440464829e-06</v>
+        <v>5.602139770481062e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.000265990533381846</v>
+        <v>0.0004109890449836846</v>
       </c>
       <c r="C144" t="n">
-        <v>7.221236665978303e-06</v>
+        <v>1.041660133438674e-05</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003470937973504207</v>
+        <v>0.0005375147401555683</v>
       </c>
       <c r="C145" t="n">
-        <v>8.652427667471265e-06</v>
+        <v>1.308658399049362e-05</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003345559464422853</v>
+        <v>0.0005204051395067142</v>
       </c>
       <c r="C146" t="n">
-        <v>8.927649682805134e-06</v>
+        <v>1.313061773133015e-05</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003413709845997838</v>
+        <v>0.0005263484230223983</v>
       </c>
       <c r="C147" t="n">
-        <v>9.282692707849843e-06</v>
+        <v>1.344717435392931e-05</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003326710930691556</v>
+        <v>0.0005141359176291859</v>
       </c>
       <c r="C148" t="n">
-        <v>9.02802461724755e-06</v>
+        <v>1.313602405717051e-05</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003383971366835692</v>
+        <v>0.0005176465125329521</v>
       </c>
       <c r="C149" t="n">
-        <v>9.130724202324647e-06</v>
+        <v>1.316005046113863e-05</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006394411254679009</v>
+        <v>0.0008652887683119142</v>
       </c>
       <c r="C150" t="n">
-        <v>1.533804688112277e-05</v>
+        <v>2.067250321924399e-05</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007123720522985208</v>
+        <v>0.0009191625837005913</v>
       </c>
       <c r="C151" t="n">
-        <v>1.666323026466635e-05</v>
+        <v>2.161464235799663e-05</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006701255522347368</v>
+        <v>0.0008627351361211296</v>
       </c>
       <c r="C152" t="n">
-        <v>1.591431427435767e-05</v>
+        <v>2.051362357759167e-05</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006398179436895877</v>
+        <v>0.0008308091009129575</v>
       </c>
       <c r="C153" t="n">
-        <v>1.514661319295269e-05</v>
+        <v>1.969456947334699e-05</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006469982613114179</v>
+        <v>0.0008320909510795256</v>
       </c>
       <c r="C154" t="n">
-        <v>1.543704643095893e-05</v>
+        <v>1.984375989458474e-05</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006130752208529356</v>
+        <v>0.0007867133152502938</v>
       </c>
       <c r="C155" t="n">
-        <v>1.464699159545009e-05</v>
+        <v>1.877237223675691e-05</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0005866409885406061</v>
+        <v>0.0007395542226564705</v>
       </c>
       <c r="C156" t="n">
-        <v>1.387490724736786e-05</v>
+        <v>1.755512938822839e-05</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005015447088195552</v>
+        <v>0.0006049928057316262</v>
       </c>
       <c r="C157" t="n">
-        <v>1.168583279473877e-05</v>
+        <v>1.412985030367019e-05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003686633005799027</v>
+        <v>0.0004292624386658923</v>
       </c>
       <c r="C158" t="n">
-        <v>9.062001867114027e-06</v>
+        <v>1.044505555156056e-05</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002151786587635349</v>
+        <v>0.0002437767172252931</v>
       </c>
       <c r="C159" t="n">
-        <v>5.395995918929013e-06</v>
+        <v>6.035773541686369e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002241163598556205</v>
+        <v>0.0002572442083367581</v>
       </c>
       <c r="C160" t="n">
-        <v>5.917323154092798e-06</v>
+        <v>6.652953510346989e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001237346700027836</v>
+        <v>0.0001402082913643601</v>
       </c>
       <c r="C161" t="n">
-        <v>3.46512693715549e-06</v>
+        <v>3.830989229129094e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001098681601229278</v>
+        <v>0.0001259012282784311</v>
       </c>
       <c r="C162" t="n">
-        <v>3.328482960983941e-06</v>
+        <v>3.629409633252933e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001123151056260712</v>
+        <v>0.0001321208963886041</v>
       </c>
       <c r="C163" t="n">
-        <v>3.25687591472444e-06</v>
+        <v>3.695184306183956e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001097576526110721</v>
+        <v>0.0001311448581505286</v>
       </c>
       <c r="C164" t="n">
-        <v>3.233324324333328e-06</v>
+        <v>3.673985109593758e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001080192688661067</v>
+        <v>0.0001354277245494635</v>
       </c>
       <c r="C165" t="n">
-        <v>3.301139738912072e-06</v>
+        <v>3.863995202083171e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001167985111129867</v>
+        <v>0.000140810847792884</v>
       </c>
       <c r="C166" t="n">
-        <v>3.671266432350154e-06</v>
+        <v>4.156031337048521e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.000112997651049847</v>
+        <v>0.0001419055325131608</v>
       </c>
       <c r="C167" t="n">
-        <v>3.196937537912715e-06</v>
+        <v>3.82907348875365e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001144762827266986</v>
+        <v>0.0001506049870321878</v>
       </c>
       <c r="C168" t="n">
-        <v>3.143195482360272e-06</v>
+        <v>3.942945309455007e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001173183718920014</v>
+        <v>0.0001586033755668486</v>
       </c>
       <c r="C169" t="n">
-        <v>3.079250612390929e-06</v>
+        <v>4.004269129846757e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001197273959371615</v>
+        <v>0.000157131225044153</v>
       </c>
       <c r="C170" t="n">
-        <v>3.254032187936298e-06</v>
+        <v>4.109241359174105e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001263685463991439</v>
+        <v>0.000181988373410047</v>
       </c>
       <c r="C171" t="n">
-        <v>3.119816134846416e-06</v>
+        <v>4.411823150330201e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001514629510158626</v>
+        <v>0.0002359053181334132</v>
       </c>
       <c r="C172" t="n">
-        <v>3.804639028806336e-06</v>
+        <v>5.736589736562904e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001867684492581767</v>
+        <v>0.0003387263703939848</v>
       </c>
       <c r="C173" t="n">
-        <v>5.085402803557499e-06</v>
+        <v>8.510701663795464e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002317546890676607</v>
+        <v>0.000489530079652768</v>
       </c>
       <c r="C174" t="n">
-        <v>6.077406728808989e-06</v>
+        <v>1.17936604801454e-05</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002455698397621464</v>
+        <v>0.0005296301628213759</v>
       </c>
       <c r="C175" t="n">
-        <v>6.977351536123377e-06</v>
+        <v>1.326379664956468e-05</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003096958948178142</v>
+        <v>0.0007375707192471187</v>
       </c>
       <c r="C176" t="n">
-        <v>9.427923601945014e-06</v>
+        <v>1.863120659469711e-05</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003899526892249971</v>
+        <v>0.0009654216895387854</v>
       </c>
       <c r="C177" t="n">
-        <v>1.15173808120796e-05</v>
+        <v>2.406288749163089e-05</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004378170878431671</v>
+        <v>0.00101030206237973</v>
       </c>
       <c r="C178" t="n">
-        <v>1.350840326957925e-05</v>
+        <v>2.58145300884427e-05</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004775394542858265</v>
+        <v>0.00107851258176764</v>
       </c>
       <c r="C179" t="n">
-        <v>1.419783053045476e-05</v>
+        <v>2.745805432350921e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000587688166092789</v>
+        <v>0.001239254667015087</v>
       </c>
       <c r="C180" t="n">
-        <v>1.667098560174019e-05</v>
+        <v>2.168065459750456e-05</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005868152667676177</v>
+        <v>0.001674368276272529</v>
       </c>
       <c r="C181" t="n">
-        <v>1.534762006079685e-05</v>
+        <v>4.165314566662297e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0009559993207061031</v>
+        <v>0.001989520656920035</v>
       </c>
       <c r="C182" t="n">
-        <v>2.513704566852436e-05</v>
+        <v>4.936096424128925e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001200959740485262</v>
+        <v>0.002551724524152538</v>
       </c>
       <c r="C183" t="n">
-        <v>3.101821434583299e-05</v>
+        <v>6.079037983669346e-05</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001562847812222798</v>
+        <v>0.002939094816715013</v>
       </c>
       <c r="C184" t="n">
-        <v>3.709894587981581e-05</v>
+        <v>6.963091684359225e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001766095408879078</v>
+        <v>0.002853840274752063</v>
       </c>
       <c r="C185" t="n">
-        <v>4.165272254127754e-05</v>
+        <v>6.670542348747326e-05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001767266676691309</v>
+        <v>0.002809658588883497</v>
       </c>
       <c r="C186" t="n">
-        <v>4.026668221648594e-05</v>
+        <v>6.580657196388144e-05</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001745897879863459</v>
+        <v>0.002751707466284682</v>
       </c>
       <c r="C187" t="n">
-        <v>4.056706659340836e-05</v>
+        <v>6.448556036818976e-05</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001803820000627213</v>
+        <v>0.002179801067622252</v>
       </c>
       <c r="C188" t="n">
-        <v>4.135498925166652e-05</v>
+        <v>5.041783279341505e-05</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001439240757207674</v>
+        <v>0.001625156705784719</v>
       </c>
       <c r="C189" t="n">
-        <v>3.225281178521679e-05</v>
+        <v>3.787086703954652e-05</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001118867075689239</v>
+        <v>0.00114638927242524</v>
       </c>
       <c r="C190" t="n">
-        <v>2.545868126592158e-05</v>
+        <v>2.672978648320969e-05</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.000838905656109432</v>
+        <v>0.0007783870873183319</v>
       </c>
       <c r="C191" t="n">
-        <v>1.927389142998634e-05</v>
+        <v>1.817793394077567e-05</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006124161431762794</v>
+        <v>0.0005427347121975533</v>
       </c>
       <c r="C192" t="n">
-        <v>1.412548811461426e-05</v>
+        <v>1.2934227651113e-05</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004486631989416705</v>
+        <v>0.0004103987674781566</v>
       </c>
       <c r="C193" t="n">
-        <v>1.066969002726639e-05</v>
+        <v>6.993700654583055e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003497200714020986</v>
+        <v>0.0003697364686038057</v>
       </c>
       <c r="C194" t="n">
-        <v>8.757310962318821e-06</v>
+        <v>8.544078322445754e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003655216688868463</v>
+        <v>0.0003375864942135216</v>
       </c>
       <c r="C195" t="n">
-        <v>8.631867083791727e-06</v>
+        <v>7.828691278713388e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003349429393628356</v>
+        <v>0.0003362389831665302</v>
       </c>
       <c r="C196" t="n">
-        <v>7.730358204468954e-06</v>
+        <v>7.62297758056451e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003076770644333992</v>
+        <v>0.0002999041358998337</v>
       </c>
       <c r="C197" t="n">
-        <v>7.144814913289347e-06</v>
+        <v>6.818454906740466e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003074586165649446</v>
+        <v>0.0002944360689054706</v>
       </c>
       <c r="C198" t="n">
-        <v>6.970357113471506e-06</v>
+        <v>6.556295379891172e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002762277809162439</v>
+        <v>0.0002909504225544872</v>
       </c>
       <c r="C199" t="n">
-        <v>6.303715647207548e-06</v>
+        <v>6.469394243005098e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002737196967003982</v>
+        <v>0.0003068144083216727</v>
       </c>
       <c r="C200" t="n">
-        <v>6.09713159928498e-06</v>
+        <v>7.400651657131738e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002691722758370553</v>
+        <v>0.0002867692000445767</v>
       </c>
       <c r="C201" t="n">
-        <v>5.996712043843759e-06</v>
+        <v>6.346998596198177e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002766601556092283</v>
+        <v>0.0003724910035479419</v>
       </c>
       <c r="C202" t="n">
-        <v>6.70903239044593e-06</v>
+        <v>9.076959258578284e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002628182427771839</v>
+        <v>0.0003608276458816227</v>
       </c>
       <c r="C203" t="n">
-        <v>5.782827495065906e-06</v>
+        <v>8.808498927134815e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003193587987121797</v>
+        <v>0.0003573681251934594</v>
       </c>
       <c r="C204" t="n">
-        <v>7.855301118910593e-06</v>
+        <v>8.731137337339506e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003050390271953874</v>
+        <v>0.0003557360137351089</v>
       </c>
       <c r="C205" t="n">
-        <v>7.53123143742637e-06</v>
+        <v>8.710590625234788e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003037356791616503</v>
+        <v>0.0003517233545562289</v>
       </c>
       <c r="C206" t="n">
-        <v>7.5003879249581e-06</v>
+        <v>8.689871450905831e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002950702240346215</v>
+        <v>0.0003539434859674832</v>
       </c>
       <c r="C207" t="n">
-        <v>7.309202468070481e-06</v>
+        <v>8.236665631308368e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002931769684049623</v>
+        <v>0.0003524804379592516</v>
       </c>
       <c r="C208" t="n">
-        <v>7.363113535525948e-06</v>
+        <v>8.552992703816807e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002984201586435217</v>
+        <v>0.0003117426225159579</v>
       </c>
       <c r="C209" t="n">
-        <v>6.906724884732946e-06</v>
+        <v>7.094330869748853e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002945166570296219</v>
+        <v>0.0002633181571860833</v>
       </c>
       <c r="C210" t="n">
-        <v>7.208277667800971e-06</v>
+        <v>5.962766157114592e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002638030967230728</v>
+        <v>0.0002508010144019103</v>
       </c>
       <c r="C211" t="n">
-        <v>5.911654591499153e-06</v>
+        <v>5.596607994624076e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002291601237114955</v>
+        <v>0.0002608521569917321</v>
       </c>
       <c r="C212" t="n">
-        <v>5.124383608670212e-06</v>
+        <v>5.796019916742422e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002211969081337964</v>
+        <v>0.0002503246773637742</v>
       </c>
       <c r="C213" t="n">
-        <v>4.862354018823293e-06</v>
+        <v>5.525297548135172e-06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000227360229047433</v>
+        <v>0.000246309374097866</v>
       </c>
       <c r="C214" t="n">
-        <v>4.956858549674886e-06</v>
+        <v>5.424825803141501e-06</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002214057502334439</v>
+        <v>0.0002439751825949623</v>
       </c>
       <c r="C215" t="n">
-        <v>4.803372832235394e-06</v>
+        <v>5.321662244893902e-06</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002168142004232977</v>
+        <v>0.0002463552488623995</v>
       </c>
       <c r="C216" t="n">
-        <v>4.693752318716369e-06</v>
+        <v>5.3922986048813e-06</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002156714019026727</v>
+        <v>0.0002605161955197903</v>
       </c>
       <c r="C217" t="n">
-        <v>4.614373293066239e-06</v>
+        <v>5.702558207519123e-06</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002183739772607947</v>
+        <v>0.0002595881149456854</v>
       </c>
       <c r="C218" t="n">
-        <v>4.670479706726835e-06</v>
+        <v>5.678951863525508e-06</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002316434860189551</v>
+        <v>0.0002491444951862125</v>
       </c>
       <c r="C219" t="n">
-        <v>4.958239007197553e-06</v>
+        <v>5.453990043082321e-06</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002322648492670935</v>
+        <v>0.0002612690013382199</v>
       </c>
       <c r="C220" t="n">
-        <v>4.987399649426189e-06</v>
+        <v>5.682645131257697e-06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,47 +3889,15 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002220424243221014</v>
+        <v>0.0002753340689050272</v>
       </c>
       <c r="C221" t="n">
-        <v>4.775539161993276e-06</v>
+        <v>6.035489393801279e-06</v>
       </c>
       <c r="D221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.0002281884621056504</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.844873505797802e-06</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.0002380721725744355</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.080787255089398e-06</v>
-      </c>
-      <c r="D223" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/legendre_out/DATA/a1/a1CrossPoints.xlsx
+++ b/legendre_out/DATA/a1/a1CrossPoints.xlsx
@@ -388,10 +388,10 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.000154242034687e-05</v>
+        <v>3.013596076468496e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>7.285549416914637e-07</v>
+        <v>7.319838598251805e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.763146714319384e-05</v>
+        <v>2.73444058798592e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>7.271074985798868e-07</v>
+        <v>7.241026217054068e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -420,10 +420,10 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.577226830385066e-05</v>
+        <v>2.597950719870545e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.969490423322151e-07</v>
+        <v>6.991994517872213e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.428952509867424e-05</v>
+        <v>2.3793767784357e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.820523175158766e-07</v>
+        <v>6.761779426267915e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -452,10 +452,10 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.372002301597441e-05</v>
+        <v>2.37288659355884e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.180593818945264e-07</v>
+        <v>7.177632821571541e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -468,10 +468,10 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.312764710066394e-05</v>
+        <v>2.349457740532336e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>7.111465593766218e-07</v>
+        <v>7.16445984493078e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -484,10 +484,10 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.258641991980371e-05</v>
+        <v>2.219550996168652e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.401652195156967e-07</v>
+        <v>6.349645290303457e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -500,10 +500,10 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.939084151484123e-05</v>
+        <v>1.941334741245873e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.586463879270433e-07</v>
+        <v>5.611781066647514e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.652177173379054e-05</v>
+        <v>1.70130104723668e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.657218331053732e-07</v>
+        <v>5.718543863573073e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>1.147244456758692e-05</v>
+        <v>1.145537781833911e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.501475137096457e-07</v>
+        <v>4.449614243999268e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6.977790626549638e-06</v>
+        <v>6.584141806881476e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>3.084259809642814e-07</v>
+        <v>3.017256285471103e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5.307894078801236e-06</v>
+        <v>5.22677609549112e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.748294569379141e-07</v>
+        <v>2.704413966645773e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>2.469326465206197e-05</v>
+        <v>2.509366992335066e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>6.695362803015539e-07</v>
+        <v>6.811062780065028e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.874241541531473e-05</v>
+        <v>3.837213333776005e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>9.712309325528824e-07</v>
+        <v>9.674711879002637e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5.253121026628386e-05</v>
+        <v>5.259493742933859e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.313359214801878e-06</v>
+        <v>1.316479725580333e-06</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -628,10 +628,10 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.957108371890544e-05</v>
+        <v>4.90735084620642e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.252879194038493e-06</v>
+        <v>1.254728180310049e-06</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -644,10 +644,10 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>5.027632850608362e-05</v>
+        <v>5.06268065992623e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1.309680956108659e-06</v>
+        <v>1.310078715338753e-06</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>4.98579844617926e-05</v>
+        <v>5.009866678585708e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.321657388487153e-06</v>
+        <v>1.323923439861345e-06</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>5.020410439878777e-05</v>
+        <v>5.037189875441223e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.373399540458392e-06</v>
+        <v>1.367906566966415e-06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.44431916291678e-05</v>
+        <v>5.432585144255742e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.544646428130132e-06</v>
+        <v>1.538200313079434e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>7.410724015313657e-05</v>
+        <v>7.400798245128042e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2.509090116165247e-06</v>
+        <v>2.549786374127327e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>9.072100005241123e-05</v>
+        <v>9.002170020518823e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.27742144954006e-06</v>
+        <v>3.286660534363732e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -740,10 +740,10 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001116529714359026</v>
+        <v>0.0001124568517637912</v>
       </c>
       <c r="C24" t="n">
-        <v>4.20661995610511e-06</v>
+        <v>4.239601045437721e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001185090348680956</v>
+        <v>0.000118485441498581</v>
       </c>
       <c r="C25" t="n">
-        <v>4.10807307660879e-06</v>
+        <v>4.14246291227134e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001083920689375963</v>
+        <v>0.0001074816500158078</v>
       </c>
       <c r="C26" t="n">
-        <v>4.054890730576845e-06</v>
+        <v>4.00777960937043e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -788,10 +788,10 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001017944448485512</v>
+        <v>0.0001057185612135713</v>
       </c>
       <c r="C27" t="n">
-        <v>3.944349957990391e-06</v>
+        <v>4.044329864761343e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001036963484720066</v>
+        <v>0.0001045508455610446</v>
       </c>
       <c r="C28" t="n">
-        <v>4.011260185567302e-06</v>
+        <v>3.96471295651785e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -820,10 +820,10 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001049865874526784</v>
+        <v>0.0001063077447969009</v>
       </c>
       <c r="C29" t="n">
-        <v>3.853961803306445e-06</v>
+        <v>3.900679435304871e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001010574246729614</v>
+        <v>0.0001006728540447099</v>
       </c>
       <c r="C30" t="n">
-        <v>3.724859478181301e-06</v>
+        <v>3.734512602566003e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -852,10 +852,10 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>9.583723437422295e-05</v>
+        <v>9.580687472645626e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>3.683007574751136e-06</v>
+        <v>3.706047776594e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>8.953769891951617e-05</v>
+        <v>8.945567150757317e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>3.602302612447361e-06</v>
+        <v>3.66012387774285e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>8.533961816792934e-05</v>
+        <v>8.642855696680949e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.354315572364757e-06</v>
+        <v>3.396651365069421e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>7.959102923424123e-05</v>
+        <v>7.998496971969311e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>3.420750810179524e-06</v>
+        <v>3.420886997078538e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>7.796540098685737e-05</v>
+        <v>7.862316008179122e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>3.103134779898495e-06</v>
+        <v>3.179152667056967e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>6.993975397670115e-05</v>
+        <v>6.85006711179735e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>2.823516031379127e-06</v>
+        <v>2.815104315860951e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>6.000380166294159e-05</v>
+        <v>6.090785093594187e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>2.346593567094264e-06</v>
+        <v>2.321291098343437e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>5.092762941309818e-05</v>
+        <v>5.190626331316718e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.912841166095105e-06</v>
+        <v>1.938044408519377e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>4.27190671864446e-05</v>
+        <v>4.278069200772593e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1.498310381255116e-06</v>
+        <v>1.524738452079965e-06</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>4.85784826572358e-05</v>
+        <v>4.922614444037793e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1.879519024396914e-06</v>
+        <v>1.91503210879908e-06</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1012,10 +1012,10 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>3.618587641946012e-05</v>
+        <v>3.573212987980849e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.297696596297212e-06</v>
+        <v>1.289592384570484e-06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>3.74078023162222e-05</v>
+        <v>3.752645477802149e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.14764780879032e-06</v>
+        <v>1.133887319258225e-06</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.575661664910162e-05</v>
+        <v>3.610326903559249e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.037175554157505e-06</v>
+        <v>1.042956650327401e-06</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>3.178049042586882e-05</v>
+        <v>3.172248334113728e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>9.023193006082339e-07</v>
+        <v>9.06706424504779e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>3.001232669975656e-05</v>
+        <v>3.014808373302171e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>8.581268239665896e-07</v>
+        <v>8.614276323283258e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1092,10 +1092,10 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.965765299718466e-05</v>
+        <v>2.901938112077972e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>8.150933225154343e-07</v>
+        <v>8.165753631151441e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.437862676138678e-05</v>
+        <v>2.456630176573691e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>7.154019161658189e-07</v>
+        <v>7.18125463241125e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.528370726576391e-05</v>
+        <v>2.537468316285049e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.440412201218811e-07</v>
+        <v>7.46452433303673e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.74959835278975e-05</v>
+        <v>2.69043950187635e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>8.195170429571394e-07</v>
+        <v>8.256412946144174e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.764272818320678e-05</v>
+        <v>2.810890332865178e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>9.209280857412723e-07</v>
+        <v>9.122620113258828e-07</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1172,10 +1172,10 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.793925924186295e-05</v>
+        <v>2.806261466794675e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>9.016475562079493e-07</v>
+        <v>9.074968490342927e-07</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>2.371831807989177e-05</v>
+        <v>2.380234654541697e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.253872353640091e-06</v>
+        <v>1.243682331207782e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.415201092280286e-05</v>
+        <v>2.558140549874469e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.398566143748921e-06</v>
+        <v>1.438758665878398e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1220,10 +1220,10 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.518402191473265e-05</v>
+        <v>1.440853558987319e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>2.20189932052701e-06</v>
+        <v>2.041480857167888e-06</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>1.463619777656303e-05</v>
+        <v>1.535168466567681e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>3.006859912806283e-06</v>
+        <v>2.726550817171855e-06</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.506350723091026e-05</v>
+        <v>1.5816030343082e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>2.319346673634064e-06</v>
+        <v>2.455574610639571e-06</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>2.071165454672651e-05</v>
+        <v>2.26952205560613e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>2.31370656107185e-06</v>
+        <v>2.576604961632261e-06</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.882747574461396e-05</v>
+        <v>2.788668569721386e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.769780168537662e-06</v>
+        <v>1.758774911724963e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>3.280702793695272e-05</v>
+        <v>3.266381546919046e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.695076839217269e-06</v>
+        <v>1.664027909926812e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>3.187809760233196e-05</v>
+        <v>3.179613499103068e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1.708637434456233e-06</v>
+        <v>1.752190572581259e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.46292716489193e-05</v>
+        <v>3.48541004007763e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.342209479291025e-06</v>
+        <v>1.334402097320643e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1348,10 +1348,10 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.899216863487676e-05</v>
+        <v>3.904670264023619e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.199595329521268e-06</v>
+        <v>1.198279518353468e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>4.201650827796277e-05</v>
+        <v>4.205521880880983e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.18619236194368e-06</v>
+        <v>1.189056418833784e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1380,10 +1380,10 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>4.555223052345129e-05</v>
+        <v>4.568234453109253e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.19031990999692e-06</v>
+        <v>1.193697547735999e-06</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>5.347372706062752e-05</v>
+        <v>5.371146845261227e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.617221932236465e-06</v>
+        <v>1.623858253797215e-06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>5.392785399208004e-05</v>
+        <v>5.337436655692541e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>2.27965278641955e-06</v>
+        <v>2.262731444791173e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>4.922010930009435e-05</v>
+        <v>4.764918705751016e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.555166262808162e-06</v>
+        <v>2.497363974130219e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1444,10 +1444,10 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>4.380995414284909e-05</v>
+        <v>4.632525141475723e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.261842490737283e-06</v>
+        <v>3.515744794594303e-06</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>4.918312165210555e-05</v>
+        <v>4.987285999719951e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.855637431718153e-06</v>
+        <v>3.063726277781622e-06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>4.064243965274718e-05</v>
+        <v>4.143772273533956e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>4.040774039925789e-06</v>
+        <v>4.153856488482394e-06</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>3.177593472196273e-05</v>
+        <v>3.182683750894819e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>4.951321733732732e-06</v>
+        <v>5.10366077836132e-06</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>4.141032848613948e-05</v>
+        <v>4.097811117335575e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>2.688777370941651e-06</v>
+        <v>2.738179740620164e-06</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1524,10 +1524,10 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.409859662756308e-05</v>
+        <v>1.329607947260183e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>3.678833228451137e-06</v>
+        <v>3.083271456842721e-06</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1.096635600062079e-05</v>
+        <v>1.272343562884678e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>3.436953949360833e-06</v>
+        <v>3.09254505818955e-06</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>1.446313745654189e-05</v>
+        <v>1.443088436190789e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>2.893658737716127e-06</v>
+        <v>3.031285064096941e-06</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>3.638240047843436e-05</v>
+        <v>3.667443075499037e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>2.59856257691325e-06</v>
+        <v>2.728316366548129e-06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1588,10 +1588,10 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001055291909995931</v>
+        <v>0.0001055186714757687</v>
       </c>
       <c r="C77" t="n">
-        <v>4.394865612711465e-06</v>
+        <v>4.381106172644461e-06</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0003074150082799202</v>
+        <v>0.0003065991239651622</v>
       </c>
       <c r="C78" t="n">
-        <v>1.018227780932772e-05</v>
+        <v>1.02897650621638e-05</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0003328395369877125</v>
+        <v>0.0003388314456516444</v>
       </c>
       <c r="C79" t="n">
-        <v>1.22441019425499e-05</v>
+        <v>1.24025614122311e-05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0002599080535354469</v>
+        <v>0.0002567900141278503</v>
       </c>
       <c r="C80" t="n">
-        <v>8.82021452928127e-06</v>
+        <v>8.671921019625913e-06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1652,10 +1652,10 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0001359321265676764</v>
+        <v>0.000136776709277761</v>
       </c>
       <c r="C81" t="n">
-        <v>5.154688838582071e-06</v>
+        <v>5.201256311339665e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1668,10 +1668,10 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0001220866831877324</v>
+        <v>0.0001224316161438904</v>
       </c>
       <c r="C82" t="n">
-        <v>4.140137044224441e-06</v>
+        <v>4.155675974621074e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.000143906211749224</v>
+        <v>0.000143826421696326</v>
       </c>
       <c r="C83" t="n">
-        <v>4.427829134217341e-06</v>
+        <v>4.422836504297044e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001535750290626236</v>
+        <v>0.0001536626037401231</v>
       </c>
       <c r="C84" t="n">
-        <v>4.094593804572978e-06</v>
+        <v>4.08791215353182e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001061320362073925</v>
+        <v>0.0001065872618959993</v>
       </c>
       <c r="C85" t="n">
-        <v>2.805509060932127e-06</v>
+        <v>2.808829954626368e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>7.460326717705928e-05</v>
+        <v>7.426092595719247e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>2.018813479043713e-06</v>
+        <v>2.015144857341899e-06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>6.318973141465907e-05</v>
+        <v>6.264884285602418e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.607686170246328e-06</v>
+        <v>1.599364979277097e-06</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>6.935954500329951e-05</v>
+        <v>6.939741172385346e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.820366902272281e-06</v>
+        <v>1.818958738337179e-06</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0001120829744446205</v>
+        <v>0.0001121123993189927</v>
       </c>
       <c r="C89" t="n">
-        <v>2.871707121414456e-06</v>
+        <v>2.872120007278975e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0002313154277874164</v>
+        <v>0.0002316275241089844</v>
       </c>
       <c r="C90" t="n">
-        <v>5.876944877643168e-06</v>
+        <v>5.878816572139667e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1812,10 +1812,10 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0002358727040221707</v>
+        <v>0.0002354420283000615</v>
       </c>
       <c r="C91" t="n">
-        <v>5.982552825977417e-06</v>
+        <v>5.974532424136399e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1828,10 +1828,10 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0002221447839952602</v>
+        <v>0.0002235187203240925</v>
       </c>
       <c r="C92" t="n">
-        <v>5.756765696507257e-06</v>
+        <v>5.772722425115563e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001789021431545884</v>
+        <v>0.0001792764235120635</v>
       </c>
       <c r="C93" t="n">
-        <v>4.954223369203144e-06</v>
+        <v>4.966626641287694e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001258304871842469</v>
+        <v>0.0001268143114399678</v>
       </c>
       <c r="C94" t="n">
-        <v>4.73476255467662e-06</v>
+        <v>4.728145926202153e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001991498540119604</v>
+        <v>0.0001975523091187232</v>
       </c>
       <c r="C95" t="n">
-        <v>6.040549803137015e-06</v>
+        <v>6.012293101036516e-06</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004147216682794244</v>
+        <v>0.0004165879019062633</v>
       </c>
       <c r="C96" t="n">
-        <v>1.014105982860041e-05</v>
+        <v>1.01785313358658e-05</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003634290871641658</v>
+        <v>0.0003639063103444141</v>
       </c>
       <c r="C97" t="n">
-        <v>8.755797193816334e-06</v>
+        <v>8.759894908642088e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002399901539528359</v>
+        <v>0.0002407015070768913</v>
       </c>
       <c r="C98" t="n">
-        <v>5.716627233746923e-06</v>
+        <v>5.727569938186865e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001528082967493449</v>
+        <v>0.0001531970326935972</v>
       </c>
       <c r="C99" t="n">
-        <v>3.647298229944277e-06</v>
+        <v>3.657342733627688e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>7.519577471931954e-05</v>
+        <v>7.476181792736192e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1.862486597188414e-06</v>
+        <v>1.857506287545761e-06</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1972,10 +1972,10 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>5.437996558735128e-05</v>
+        <v>5.451444798097336e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.313062293717529e-06</v>
+        <v>1.314911409843443e-06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.732044175378717e-05</v>
+        <v>5.722268948047766e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.373655142018551e-06</v>
+        <v>1.375511498892706e-06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>6.20625852228339e-05</v>
+        <v>6.18219555674588e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.507471724472597e-06</v>
+        <v>1.502501374136433e-06</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>6.608722063740619e-05</v>
+        <v>6.57643642447686e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1.553993278016504e-06</v>
+        <v>1.549945753028263e-06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.974090580952666e-05</v>
+        <v>7.003126995907139e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1.795809221782491e-06</v>
+        <v>1.802944737895917e-06</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>7.01885064558694e-05</v>
+        <v>7.029603501948421e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.785493164885028e-06</v>
+        <v>1.78587319912502e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>7.072313915325942e-05</v>
+        <v>7.105491756250939e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.927132716331288e-06</v>
+        <v>1.924352036079504e-06</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>7.418564326925211e-05</v>
+        <v>7.362119808797143e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.82009902070515e-06</v>
+        <v>1.809457791593465e-06</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2100,10 +2100,10 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>7.557160424454405e-05</v>
+        <v>7.56879732585637e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.978146048270872e-06</v>
+        <v>1.982477332500259e-06</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>7.614798335586908e-05</v>
+        <v>7.561160554599451e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.891654773289404e-06</v>
+        <v>1.88368826315141e-06</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>7.687898091953641e-05</v>
+        <v>7.68708596910019e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.938517694948631e-06</v>
+        <v>1.936698920000792e-06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2148,10 +2148,10 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>7.99801746524017e-05</v>
+        <v>7.971738916946329e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.107132623862344e-06</v>
+        <v>2.107345135162438e-06</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>7.680125808677259e-05</v>
+        <v>7.669677015212725e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.976047301479071e-06</v>
+        <v>1.979661654627823e-06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2180,10 +2180,10 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>8.007137742112398e-05</v>
+        <v>7.978368862840218e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>2.028525032455187e-06</v>
+        <v>2.030118982119563e-06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>8.008397995429655e-05</v>
+        <v>7.981775796167136e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>2.075897479548432e-06</v>
+        <v>2.074665219718204e-06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>8.21089261733579e-05</v>
+        <v>8.271312987636362e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.134939629262983e-06</v>
+        <v>2.145372146409226e-06</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2228,10 +2228,10 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>8.720136042315918e-05</v>
+        <v>8.756376602148226e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2.312886352203438e-06</v>
+        <v>2.324954809053438e-06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>8.228916027800296e-05</v>
+        <v>8.267239928669011e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>2.05463922950975e-06</v>
+        <v>2.06262832128259e-06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>8.377660771846928e-05</v>
+        <v>8.403615116951823e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>2.173398065632232e-06</v>
+        <v>2.180037804146396e-06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>8.468355078247249e-05</v>
+        <v>8.497456250029359e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>2.134297917434311e-06</v>
+        <v>2.140401461141363e-06</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>9.047316852704549e-05</v>
+        <v>9.029052253667089e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>2.331041715872939e-06</v>
+        <v>2.327463259469266e-06</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2308,10 +2308,10 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>8.721209487429061e-05</v>
+        <v>8.706312147354364e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>2.145514584855104e-06</v>
+        <v>2.14455670904449e-06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2324,10 +2324,10 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>8.963393756427206e-05</v>
+        <v>8.986309183400918e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>2.149392526655107e-06</v>
+        <v>2.153896373710777e-06</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>9.737664514887169e-05</v>
+        <v>9.769801660649701e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>2.431766309278849e-06</v>
+        <v>2.440173321518327e-06</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2356,10 +2356,10 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001038598302544735</v>
+        <v>0.0001040330233559185</v>
       </c>
       <c r="C125" t="n">
-        <v>2.522153113072709e-06</v>
+        <v>2.528238360203416e-06</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2372,10 +2372,10 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001175814580627266</v>
+        <v>0.0001181399197516867</v>
       </c>
       <c r="C126" t="n">
-        <v>2.873917788094132e-06</v>
+        <v>2.884651432279728e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2388,10 +2388,10 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001166824111796317</v>
+        <v>0.0001165909827619145</v>
       </c>
       <c r="C127" t="n">
-        <v>2.84019040604755e-06</v>
+        <v>2.843183035657797e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001440335284033769</v>
+        <v>0.0001442872345379762</v>
       </c>
       <c r="C128" t="n">
-        <v>3.594810580187028e-06</v>
+        <v>3.603395842432988e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002286287624292498</v>
+        <v>0.0002303308951589703</v>
       </c>
       <c r="C129" t="n">
-        <v>5.781938100958142e-06</v>
+        <v>5.810227454911932e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0003122173600061873</v>
+        <v>0.0003120957759071577</v>
       </c>
       <c r="C130" t="n">
-        <v>7.66512718550302e-06</v>
+        <v>7.659264577552593e-06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.000310422944790086</v>
+        <v>0.0003101824037394941</v>
       </c>
       <c r="C131" t="n">
-        <v>7.85299986459225e-06</v>
+        <v>7.888110355038668e-06</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2468,10 +2468,10 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002932881889689139</v>
+        <v>0.0002945446052321776</v>
       </c>
       <c r="C132" t="n">
-        <v>7.312747378355064e-06</v>
+        <v>7.328288057638073e-06</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002862879592234184</v>
+        <v>0.0002888722626258691</v>
       </c>
       <c r="C133" t="n">
-        <v>7.143868417275234e-06</v>
+        <v>7.194865909676968e-06</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002835253625906371</v>
+        <v>0.0002827513798648593</v>
       </c>
       <c r="C134" t="n">
-        <v>7.130552029279033e-06</v>
+        <v>7.123120393845569e-06</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2516,10 +2516,10 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002669537795698326</v>
+        <v>0.0002678476444624495</v>
       </c>
       <c r="C135" t="n">
-        <v>6.935199383973108e-06</v>
+        <v>6.945402241219045e-06</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2532,10 +2532,10 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000240483051049968</v>
+        <v>0.0002406546829831124</v>
       </c>
       <c r="C136" t="n">
-        <v>6.193966074999816e-06</v>
+        <v>6.207601777426446e-06</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001797189086259691</v>
+        <v>0.0001809711136166806</v>
       </c>
       <c r="C137" t="n">
-        <v>4.919734102515735e-06</v>
+        <v>4.948019446289163e-06</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001293848613067862</v>
+        <v>0.0001295849671605673</v>
       </c>
       <c r="C138" t="n">
-        <v>3.57080686085567e-06</v>
+        <v>3.578905433599782e-06</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2580,10 +2580,10 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002542656138601661</v>
+        <v>0.0002546154071016827</v>
       </c>
       <c r="C139" t="n">
-        <v>6.057891300810975e-06</v>
+        <v>6.061912743028196e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002474477667020884</v>
+        <v>0.0002489315036726651</v>
       </c>
       <c r="C140" t="n">
-        <v>5.961647234885174e-06</v>
+        <v>5.987310007011273e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002544573691264853</v>
+        <v>0.000254249327819536</v>
       </c>
       <c r="C141" t="n">
-        <v>5.91451158670739e-06</v>
+        <v>5.913967021099217e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2628,10 +2628,10 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002292796781555733</v>
+        <v>0.0002297358076253804</v>
       </c>
       <c r="C142" t="n">
-        <v>5.491144133002071e-06</v>
+        <v>5.495479300646044e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002309771980809863</v>
+        <v>0.0002308665122453486</v>
       </c>
       <c r="C143" t="n">
-        <v>5.602139770481062e-06</v>
+        <v>5.593505931917347e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0004109890449836846</v>
+        <v>0.0004113871199255009</v>
       </c>
       <c r="C144" t="n">
-        <v>1.041660133438674e-05</v>
+        <v>1.042681993448878e-05</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0005375147401555683</v>
+        <v>0.0005387898378421704</v>
       </c>
       <c r="C145" t="n">
-        <v>1.308658399049362e-05</v>
+        <v>1.310864042041476e-05</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2692,10 +2692,10 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005204051395067142</v>
+        <v>0.0005210817303274999</v>
       </c>
       <c r="C146" t="n">
-        <v>1.313061773133015e-05</v>
+        <v>1.313042179250628e-05</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005263484230223983</v>
+        <v>0.0005257382209663986</v>
       </c>
       <c r="C147" t="n">
-        <v>1.344717435392931e-05</v>
+        <v>1.34440892432943e-05</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005141359176291859</v>
+        <v>0.0005154300173035274</v>
       </c>
       <c r="C148" t="n">
-        <v>1.313602405717051e-05</v>
+        <v>1.314307205842148e-05</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2740,10 +2740,10 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005176465125329521</v>
+        <v>0.0005183782470443226</v>
       </c>
       <c r="C149" t="n">
-        <v>1.316005046113863e-05</v>
+        <v>1.317543143996505e-05</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0008652887683119142</v>
+        <v>0.000866247132209302</v>
       </c>
       <c r="C150" t="n">
-        <v>2.067250321924399e-05</v>
+        <v>2.068856738129562e-05</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2772,10 +2772,10 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0009191625837005913</v>
+        <v>0.0009204079697693852</v>
       </c>
       <c r="C151" t="n">
-        <v>2.161464235799663e-05</v>
+        <v>2.164689298358547e-05</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2788,10 +2788,10 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0008627351361211296</v>
+        <v>0.0008637774304598896</v>
       </c>
       <c r="C152" t="n">
-        <v>2.051362357759167e-05</v>
+        <v>2.053574851231933e-05</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2804,10 +2804,10 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0008308091009129575</v>
+        <v>0.0008327347106023742</v>
       </c>
       <c r="C153" t="n">
-        <v>1.969456947334699e-05</v>
+        <v>1.974299693661913e-05</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0008320909510795256</v>
+        <v>0.0008318772598618878</v>
       </c>
       <c r="C154" t="n">
-        <v>1.984375989458474e-05</v>
+        <v>1.984439370558073e-05</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0007867133152502938</v>
+        <v>0.0007881367250747407</v>
       </c>
       <c r="C155" t="n">
-        <v>1.877237223675691e-05</v>
+        <v>1.878599105309382e-05</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0007395542226564705</v>
+        <v>0.0007405524255902495</v>
       </c>
       <c r="C156" t="n">
-        <v>1.755512938822839e-05</v>
+        <v>1.756510148731882e-05</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2868,10 +2868,10 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0006049928057316262</v>
+        <v>0.0006058575481610369</v>
       </c>
       <c r="C157" t="n">
-        <v>1.412985030367019e-05</v>
+        <v>1.414834704525962e-05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004292624386658923</v>
+        <v>0.0004291162520820955</v>
       </c>
       <c r="C158" t="n">
-        <v>1.044505555156056e-05</v>
+        <v>1.045181466753319e-05</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2900,10 +2900,10 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002437767172252931</v>
+        <v>0.0002438676082922127</v>
       </c>
       <c r="C159" t="n">
-        <v>6.035773541686369e-06</v>
+        <v>6.032308365824655e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002572442083367581</v>
+        <v>0.0002572071933076541</v>
       </c>
       <c r="C160" t="n">
-        <v>6.652953510346989e-06</v>
+        <v>6.654174119108758e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2932,10 +2932,10 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001402082913643601</v>
+        <v>0.0001406280427895519</v>
       </c>
       <c r="C161" t="n">
-        <v>3.830989229129094e-06</v>
+        <v>3.835537057080321e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2948,10 +2948,10 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001259012282784311</v>
+        <v>0.0001256643687850916</v>
       </c>
       <c r="C162" t="n">
-        <v>3.629409633252933e-06</v>
+        <v>3.639983041959804e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2964,10 +2964,10 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001321208963886041</v>
+        <v>0.0001319932092884267</v>
       </c>
       <c r="C163" t="n">
-        <v>3.695184306183956e-06</v>
+        <v>3.68650572838597e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001311448581505286</v>
+        <v>0.0001314731136259668</v>
       </c>
       <c r="C164" t="n">
-        <v>3.673985109593758e-06</v>
+        <v>3.68423913876126e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001354277245494635</v>
+        <v>0.0001363418794540511</v>
       </c>
       <c r="C165" t="n">
-        <v>3.863995202083171e-06</v>
+        <v>3.877760446112316e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3012,10 +3012,10 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000140810847792884</v>
+        <v>0.0001407519780143623</v>
       </c>
       <c r="C166" t="n">
-        <v>4.156031337048521e-06</v>
+        <v>4.172277380175182e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001419055325131608</v>
+        <v>0.0001412948813485497</v>
       </c>
       <c r="C167" t="n">
-        <v>3.82907348875365e-06</v>
+        <v>3.812591379201056e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3044,10 +3044,10 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001506049870321878</v>
+        <v>0.0001505234873261286</v>
       </c>
       <c r="C168" t="n">
-        <v>3.942945309455007e-06</v>
+        <v>3.945594013579681e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001586033755668486</v>
+        <v>0.0001593975520931324</v>
       </c>
       <c r="C169" t="n">
-        <v>4.004269129846757e-06</v>
+        <v>4.011342997249948e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3076,10 +3076,10 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.000157131225044153</v>
+        <v>0.0001582308970306473</v>
       </c>
       <c r="C170" t="n">
-        <v>4.109241359174105e-06</v>
+        <v>4.130254117377276e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3092,10 +3092,10 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.000181988373410047</v>
+        <v>0.000182559434067743</v>
       </c>
       <c r="C171" t="n">
-        <v>4.411823150330201e-06</v>
+        <v>4.424511721550045e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0002359053181334132</v>
+        <v>0.0002361957764899615</v>
       </c>
       <c r="C172" t="n">
-        <v>5.736589736562904e-06</v>
+        <v>5.738640144188821e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3124,10 +3124,10 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0003387263703939848</v>
+        <v>0.0003393602000859807</v>
       </c>
       <c r="C173" t="n">
-        <v>8.510701663795464e-06</v>
+        <v>8.517119158754304e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3140,10 +3140,10 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.000489530079652768</v>
+        <v>0.0004908135252147827</v>
       </c>
       <c r="C174" t="n">
-        <v>1.17936604801454e-05</v>
+        <v>1.180878042244137e-05</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0005296301628213759</v>
+        <v>0.0005306838388268861</v>
       </c>
       <c r="C175" t="n">
-        <v>1.326379664956468e-05</v>
+        <v>1.329113467779829e-05</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3172,10 +3172,10 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0007375707192471187</v>
+        <v>0.000737816896619144</v>
       </c>
       <c r="C176" t="n">
-        <v>1.863120659469711e-05</v>
+        <v>1.863473588639428e-05</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3188,10 +3188,10 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0009654216895387854</v>
+        <v>0.0009659379279900462</v>
       </c>
       <c r="C177" t="n">
-        <v>2.406288749163089e-05</v>
+        <v>2.40780783294956e-05</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3204,10 +3204,10 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.00101030206237973</v>
+        <v>0.001010272061608644</v>
       </c>
       <c r="C178" t="n">
-        <v>2.58145300884427e-05</v>
+        <v>2.584244768330116e-05</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3220,10 +3220,10 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.00107851258176764</v>
+        <v>0.001076738637953464</v>
       </c>
       <c r="C179" t="n">
-        <v>2.745805432350921e-05</v>
+        <v>2.741730902976918e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3236,10 +3236,10 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.001239254667015087</v>
+        <v>0.001240563409521094</v>
       </c>
       <c r="C180" t="n">
-        <v>2.168065459750456e-05</v>
+        <v>2.169520969381035e-05</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001674368276272529</v>
+        <v>0.001672274799099406</v>
       </c>
       <c r="C181" t="n">
-        <v>4.165314566662297e-05</v>
+        <v>4.15916427041606e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001989520656920035</v>
+        <v>0.001995578208954948</v>
       </c>
       <c r="C182" t="n">
-        <v>4.936096424128925e-05</v>
+        <v>4.945545332120517e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.002551724524152538</v>
+        <v>0.002551446131743957</v>
       </c>
       <c r="C183" t="n">
-        <v>6.079037983669346e-05</v>
+        <v>6.080335961794458e-05</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002939094816715013</v>
+        <v>0.002945339286251207</v>
       </c>
       <c r="C184" t="n">
-        <v>6.963091684359225e-05</v>
+        <v>6.977814011527912e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3316,10 +3316,10 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002853840274752063</v>
+        <v>0.00285278747289644</v>
       </c>
       <c r="C185" t="n">
-        <v>6.670542348747326e-05</v>
+        <v>6.666993027652673e-05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002809658588883497</v>
+        <v>0.002812961938019532</v>
       </c>
       <c r="C186" t="n">
-        <v>6.580657196388144e-05</v>
+        <v>6.585227125307573e-05</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3348,10 +3348,10 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002751707466284682</v>
+        <v>0.002754260775593216</v>
       </c>
       <c r="C187" t="n">
-        <v>6.448556036818976e-05</v>
+        <v>6.453958616899384e-05</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3364,10 +3364,10 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002179801067622252</v>
+        <v>0.002182298396150906</v>
       </c>
       <c r="C188" t="n">
-        <v>5.041783279341505e-05</v>
+        <v>5.04722561439181e-05</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3380,10 +3380,10 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001625156705784719</v>
+        <v>0.001626497762513444</v>
       </c>
       <c r="C189" t="n">
-        <v>3.787086703954652e-05</v>
+        <v>3.790384407724967e-05</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3396,10 +3396,10 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.00114638927242524</v>
+        <v>0.001146662552521903</v>
       </c>
       <c r="C190" t="n">
-        <v>2.672978648320969e-05</v>
+        <v>2.671342633428247e-05</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0007783870873183319</v>
+        <v>0.0007780877286129429</v>
       </c>
       <c r="C191" t="n">
-        <v>1.817793394077567e-05</v>
+        <v>1.817058309873467e-05</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3428,10 +3428,10 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0005427347121975533</v>
+        <v>0.000543629058160837</v>
       </c>
       <c r="C192" t="n">
-        <v>1.2934227651113e-05</v>
+        <v>1.294254682022382e-05</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3444,10 +3444,10 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004103987674781566</v>
+        <v>0.0004115216471807054</v>
       </c>
       <c r="C193" t="n">
-        <v>6.993700654583055e-06</v>
+        <v>7.01168435372223e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003697364686038057</v>
+        <v>0.0003705115890853591</v>
       </c>
       <c r="C194" t="n">
-        <v>8.544078322445754e-06</v>
+        <v>8.567535946351904e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003375864942135216</v>
+        <v>0.0003388593394651468</v>
       </c>
       <c r="C195" t="n">
-        <v>7.828691278713388e-06</v>
+        <v>7.848543315835032e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3492,10 +3492,10 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003362389831665302</v>
+        <v>0.0003365502205195772</v>
       </c>
       <c r="C196" t="n">
-        <v>7.62297758056451e-06</v>
+        <v>7.630962826118309e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002999041358998337</v>
+        <v>0.0003001417657050828</v>
       </c>
       <c r="C197" t="n">
-        <v>6.818454906740466e-06</v>
+        <v>6.829065736534305e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002944360689054706</v>
+        <v>0.0002948389327094008</v>
       </c>
       <c r="C198" t="n">
-        <v>6.556295379891172e-06</v>
+        <v>6.566639577700213e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3540,10 +3540,10 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002909504225544872</v>
+        <v>0.0002906960165969283</v>
       </c>
       <c r="C199" t="n">
-        <v>6.469394243005098e-06</v>
+        <v>6.467304475249373e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3556,10 +3556,10 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003068144083216727</v>
+        <v>0.0003082944001622771</v>
       </c>
       <c r="C200" t="n">
-        <v>7.400651657131738e-06</v>
+        <v>7.428030564737353e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002867692000445767</v>
+        <v>0.000286128456726704</v>
       </c>
       <c r="C201" t="n">
-        <v>6.346998596198177e-06</v>
+        <v>6.334799810349891e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003724910035479419</v>
+        <v>0.0003720487422311309</v>
       </c>
       <c r="C202" t="n">
-        <v>9.076959258578284e-06</v>
+        <v>9.068011852044823e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3604,10 +3604,10 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003608276458816227</v>
+        <v>0.0003630461663592065</v>
       </c>
       <c r="C203" t="n">
-        <v>8.808498927134815e-06</v>
+        <v>8.846271753553633e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003573681251934594</v>
+        <v>0.0003568658936019444</v>
       </c>
       <c r="C204" t="n">
-        <v>8.731137337339506e-06</v>
+        <v>8.714313348143795e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3636,10 +3636,10 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003557360137351089</v>
+        <v>0.0003555428260082378</v>
       </c>
       <c r="C205" t="n">
-        <v>8.710590625234788e-06</v>
+        <v>8.702317796591618e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3652,10 +3652,10 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003517233545562289</v>
+        <v>0.0003517767104592872</v>
       </c>
       <c r="C206" t="n">
-        <v>8.689871450905831e-06</v>
+        <v>8.693259357951112e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3668,10 +3668,10 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003539434859674832</v>
+        <v>0.0003542894268960327</v>
       </c>
       <c r="C207" t="n">
-        <v>8.236665631308368e-06</v>
+        <v>8.251934912849177e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003524804379592516</v>
+        <v>0.0003517981353409048</v>
       </c>
       <c r="C208" t="n">
-        <v>8.552992703816807e-06</v>
+        <v>8.544740427227966e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3700,10 +3700,10 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003117426225159579</v>
+        <v>0.0003121238357798939</v>
       </c>
       <c r="C209" t="n">
-        <v>7.094330869748853e-06</v>
+        <v>7.102054967597292e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3716,10 +3716,10 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002633181571860833</v>
+        <v>0.000264688502621765</v>
       </c>
       <c r="C210" t="n">
-        <v>5.962766157114592e-06</v>
+        <v>5.978215547566958e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3732,10 +3732,10 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002508010144019103</v>
+        <v>0.0002515395385049402</v>
       </c>
       <c r="C211" t="n">
-        <v>5.596607994624076e-06</v>
+        <v>5.610625501409225e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002608521569917321</v>
+        <v>0.0002604158898218147</v>
       </c>
       <c r="C212" t="n">
-        <v>5.796019916742422e-06</v>
+        <v>5.782687067254916e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002503246773637742</v>
+        <v>0.0002509008854204443</v>
       </c>
       <c r="C213" t="n">
-        <v>5.525297548135172e-06</v>
+        <v>5.537119670320981e-06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000246309374097866</v>
+        <v>0.0002458661420057188</v>
       </c>
       <c r="C214" t="n">
-        <v>5.424825803141501e-06</v>
+        <v>5.4109823440839e-06</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3796,10 +3796,10 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002439751825949623</v>
+        <v>0.0002446413976294841</v>
       </c>
       <c r="C215" t="n">
-        <v>5.321662244893902e-06</v>
+        <v>5.332983387228941e-06</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3812,10 +3812,10 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002463552488623995</v>
+        <v>0.000247418720575359</v>
       </c>
       <c r="C216" t="n">
-        <v>5.3922986048813e-06</v>
+        <v>5.403928005433676e-06</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3828,10 +3828,10 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002605161955197903</v>
+        <v>0.0002608241787104761</v>
       </c>
       <c r="C217" t="n">
-        <v>5.702558207519123e-06</v>
+        <v>5.702355346043344e-06</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3844,10 +3844,10 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002595881149456854</v>
+        <v>0.0002595348103149842</v>
       </c>
       <c r="C218" t="n">
-        <v>5.678951863525508e-06</v>
+        <v>5.682332822193082e-06</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3860,10 +3860,10 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002491444951862125</v>
+        <v>0.0002488814776075776</v>
       </c>
       <c r="C219" t="n">
-        <v>5.453990043082321e-06</v>
+        <v>5.450253706864239e-06</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3876,10 +3876,10 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002612690013382199</v>
+        <v>0.0002616597174103275</v>
       </c>
       <c r="C220" t="n">
-        <v>5.682645131257697e-06</v>
+        <v>5.692080856629374e-06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3892,10 +3892,10 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002753340689050272</v>
+        <v>0.0002754245518971282</v>
       </c>
       <c r="C221" t="n">
-        <v>6.035489393801279e-06</v>
+        <v>6.031360795342176e-06</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
